--- a/data/trans_bre/P16A05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.8994686890398846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.3748986241903136</v>
+        <v>-0.3748986241903139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1417834731119537</v>
@@ -649,7 +649,7 @@
         <v>-0.219273096620666</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1077504891160029</v>
+        <v>-0.107750489116003</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.045523774984501</v>
+        <v>-2.251401827118357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.754819314126892</v>
+        <v>-2.635910612193882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.407600353148234</v>
+        <v>-3.590392537802714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.293271722465486</v>
+        <v>-2.51718273909789</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.533060356797019</v>
+        <v>-0.5239995158263461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6162398235529644</v>
+        <v>-0.5813030078289279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6509983543215598</v>
+        <v>-0.6611008784623895</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4968917888332108</v>
+        <v>-0.5688385458650984</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.301127559522208</v>
+        <v>3.165476652619255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.927828831305173</v>
+        <v>3.202401568015052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.671656940731626</v>
+        <v>1.676640631324306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.823381508465476</v>
+        <v>1.537530635143818</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.546489545018875</v>
+        <v>1.595878490903721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.512177533188839</v>
+        <v>1.96214022717683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6450958560669532</v>
+        <v>0.717765553994844</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7715335623978351</v>
+        <v>0.6207163533505876</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.3822164137002135</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.032785715442247</v>
+        <v>1.032785715442248</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1733782720413541</v>
+        <v>0.1024467899451968</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.59724597939195</v>
+        <v>-2.058311700492474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.458061636729359</v>
+        <v>-1.677110874680347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7980687963104984</v>
+        <v>0.7906944084654132</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.11276986069802</v>
+        <v>-0.1047028455419665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3313563493999325</v>
+        <v>-0.3916330186036652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4017603787328051</v>
+        <v>-0.4602592415002537</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1213747667121899</v>
+        <v>0.132259111516381</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.979000073833729</v>
+        <v>4.953886235017144</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.970142162129472</v>
+        <v>4.596037160143205</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.186190953241884</v>
+        <v>4.00055844821146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.599355010406541</v>
+        <v>6.056548300431912</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.047164631733702</v>
+        <v>8.028311530859044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.471660607768022</v>
+        <v>1.977726092644283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.382825383155138</v>
+        <v>2.210405549208662</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.643110377608578</v>
+        <v>2.88963800527661</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>2.144526534856019</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7801960558574593</v>
+        <v>0.7801960558574595</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7692537057493655</v>
+        <v>-0.6439283683975844</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.064271441256846</v>
+        <v>1.04117286390976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.883670934458011</v>
+        <v>1.881477648724372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4412099769912218</v>
+        <v>0.2469070733283691</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3355887542621479</v>
+        <v>-0.2458018723608357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1397711994732466</v>
+        <v>0.1364087623157746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4655417877555232</v>
+        <v>0.4458096673799804</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04747311302272731</v>
+        <v>0.009693079388482311</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.209903026776412</v>
+        <v>6.728895395435491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.407425307572426</v>
+        <v>9.756587261217941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.56331016382005</v>
+        <v>11.67704340993471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.441331330231202</v>
+        <v>8.936002464669853</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.122782888279373</v>
+        <v>3.911673733981639</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.704532981829531</v>
+        <v>2.775283714485004</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.721055965488558</v>
+        <v>5.491248342005164</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.144412395899419</v>
+        <v>1.92024018025727</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.95756080117364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.458334629800371</v>
+        <v>3.458334629800369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.021561404720604</v>
@@ -949,7 +949,7 @@
         <v>1.066789440943672</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.7937411326244079</v>
+        <v>0.7937411326244074</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7835672267156301</v>
+        <v>0.8696467817063421</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.412338630210728</v>
+        <v>1.765776760310691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.732476947371281</v>
+        <v>2.010517947302734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.737359548306221</v>
+        <v>1.384236288692575</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2106657022777898</v>
+        <v>0.24164310920613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3203971207499287</v>
+        <v>0.3965676842890976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3561513236391827</v>
+        <v>0.4312122791038034</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2897630819007805</v>
+        <v>0.2609662836360143</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.577549402350424</v>
+        <v>4.615675664751507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.05480435333459</v>
+        <v>6.050862203797602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.225446139411728</v>
+        <v>6.273200474747285</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.326823380450087</v>
+        <v>5.299933235645319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.231012036125697</v>
+        <v>2.210867188323419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.519825691693955</v>
+        <v>2.561875585671407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.067867357372398</v>
+        <v>2.154260205263207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.494281017059589</v>
+        <v>1.485126497201833</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.248799903638889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.383949150020122</v>
+        <v>5.38394915002012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7343229424929524</v>
@@ -1049,7 +1049,7 @@
         <v>1.684215632297024</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.953580167297487</v>
+        <v>0.9535801672974866</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03508340407076422</v>
+        <v>-0.03766830908214233</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.022551243459785</v>
+        <v>3.019207244851108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.110199885207658</v>
+        <v>4.548351857836244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.696303114665292</v>
+        <v>2.622645135546874</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03984082672047911</v>
+        <v>-0.04569269224486298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7472778084851512</v>
+        <v>0.7099226365890146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7226917705886509</v>
+        <v>0.7737097484423636</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3485998586847882</v>
+        <v>0.3114258402524959</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.045603981217662</v>
+        <v>5.687514790894006</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.360868685292324</v>
+        <v>7.942273223015054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.104988354415</v>
+        <v>10.04963189863841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.74730492024622</v>
+        <v>7.651557349997266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.480041329764537</v>
+        <v>2.169420356305503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.771446967995376</v>
+        <v>4.31351181053975</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.202570426525415</v>
+        <v>3.258649433837536</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.771556389261519</v>
+        <v>1.81217639177383</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.585022699005981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.493107064388702</v>
+        <v>7.493107064388699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.726442115947683</v>
@@ -1149,7 +1149,7 @@
         <v>3.158117583186818</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.689568714247622</v>
+        <v>2.689568714247621</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.783924759484497</v>
+        <v>1.895790279349955</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.417223348314212</v>
+        <v>2.961235603825157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.929284304571418</v>
+        <v>3.182814280792638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.069685638922872</v>
+        <v>4.206535890181367</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3869809229590909</v>
+        <v>0.2615845136714159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5918391704625581</v>
+        <v>0.4107700487408434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8436986774944133</v>
+        <v>0.7482394716167177</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4570202329622072</v>
+        <v>0.5520398136693799</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.782862247267156</v>
+        <v>5.903221977579325</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.039426857319768</v>
+        <v>7.98126486729929</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.621694242874439</v>
+        <v>7.892936447152666</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.03954425001041</v>
+        <v>9.917600560244669</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>12.43192231879473</v>
+        <v>13.94186256056503</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>20.65445995664565</v>
+        <v>19.97714277135934</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>10.72334958699497</v>
+        <v>10.76893639423296</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>8.540375598001642</v>
+        <v>7.635686567868871</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.139525839241339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.090122218261405</v>
+        <v>4.090122218261404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.049506523772415</v>
@@ -1249,7 +1249,7 @@
         <v>1.186078803418238</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.9404137966700851</v>
+        <v>0.9404137966700848</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.767656953002673</v>
+        <v>1.787553838388448</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.731232058695526</v>
+        <v>2.700878343708993</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.075617087830655</v>
+        <v>2.991430336730001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.145915543455872</v>
+        <v>3.095216277916788</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5868844925782181</v>
+        <v>0.56053245941108</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7087156936293169</v>
+        <v>0.6878030039016205</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7527894803309628</v>
+        <v>0.7516583941477506</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6366213473977732</v>
+        <v>0.6254839431558117</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.701674599521949</v>
+        <v>3.655874993263831</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.877457750220747</v>
+        <v>5.043746416531122</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.287223496770646</v>
+        <v>5.325136506347699</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.116606257111819</v>
+        <v>4.979458905414567</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.666386688813387</v>
+        <v>1.61662529609353</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.758323641630354</v>
+        <v>1.773897497636359</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.667078345936824</v>
+        <v>1.772301469215178</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.318815629789446</v>
+        <v>1.27165319612886</v>
       </c>
     </row>
     <row r="25">
